--- a/Dropdowns.xlsx
+++ b/Dropdowns.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Home/Item Journals</t>
   </si>
   <si>
     <t>Home/Customers</t>
+  </si>
+  <si>
+    <t>Nav.Navigate.page</t>
   </si>
   <si>
     <t>Home/Sales Credit Memos</t>
@@ -62,10 +65,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -91,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,86 +404,130 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$6" sqref="$A$6:$A$6"/>
+      <selection activeCell="$A$2" sqref="$A$2:$A$2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>10</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>1</v>
       </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
